--- a/SchoolManager/wwwroot/descargables/asignaciones_estudiantes_grado_grupo.xlsx
+++ b/SchoolManager/wwwroot/descargables/asignaciones_estudiantes_grado_grupo.xlsx
@@ -1,149 +1,506 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\ArchivosDev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\ArchivosDev\Originales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EB3EC7-8E37-488F-8869-4D2F4E59CAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BBD958-7950-493B-AED3-70692B9A2B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Asignaciones" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
-  <si>
-    <t>C</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="158">
+  <si>
+    <t>ESTUDIANTE (EMAIL)</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>APELLIDO</t>
+  </si>
+  <si>
+    <t>DOCUMENTO ID</t>
+  </si>
+  <si>
+    <t>FECHA NACIMIENTO</t>
+  </si>
+  <si>
+    <t>GRADO</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>INCLUSIÓN</t>
+  </si>
+  <si>
+    <t>richard.albaOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>luz.arboledaOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>joseph.cordoba6Omeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>joshua.cousinOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>hasniel.deboutaudOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>yassith.decampuzanoOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>gabriel.dominguez2Omeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>gustavo.espinosalOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>juan.gonzalez128Omeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>immanuel.hardingOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>sean.marshallOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>hermes.menaOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>bryan.mendezOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>daniel.mendez4Omeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>ruth.mendoza7Omeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>oscar.nunez5Omeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>tamir.rodriguezlOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>oscar.vergara2Omeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>david.villalbaOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>suraj.arciaOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>luis.arias2Omeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>luis.bonillal4Omeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>jhosept.ceballosOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>yarli.coloradoOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>cesar.decastaOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>yassir.delacruzOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>hilary.delosrioslOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>angel.gonzalez95Omeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>jose.guardialOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>danny.guerreroOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>milka.hidalgoOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>juan.miranda62Omeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>henry.seguralOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>orielis.osorioOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>nayelys.pittiOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>agustin.sanchezlOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>cristian.valenciaOmeduca.edu.pa</t>
+  </si>
+  <si>
+    <t>RICHARD ALEXIS</t>
+  </si>
+  <si>
+    <t>LUZ ESTRELLA</t>
+  </si>
+  <si>
+    <t>JOSEPH FELIX</t>
+  </si>
+  <si>
+    <t>JOSHUA SAUL</t>
+  </si>
+  <si>
+    <t>HASNIEL JAVIER</t>
+  </si>
+  <si>
+    <t>YASSITH ANTONIO</t>
+  </si>
+  <si>
+    <t>GABRIEL JOSEPH</t>
+  </si>
+  <si>
+    <t>GUSTAVO ALBERTO</t>
+  </si>
+  <si>
+    <t>JUAN DAVID</t>
+  </si>
+  <si>
+    <t>IMMANUEL ALFREDO</t>
+  </si>
+  <si>
+    <t>SEAN ANTONY</t>
+  </si>
+  <si>
+    <t>HERMES</t>
+  </si>
+  <si>
+    <t>BRYAN JAFET</t>
+  </si>
+  <si>
+    <t>DANIEL JESUS</t>
+  </si>
+  <si>
+    <t>RUTH MICHELL</t>
+  </si>
+  <si>
+    <t>OSCAR ABDIEL</t>
+  </si>
+  <si>
+    <t>TAMIR ANTUAN</t>
+  </si>
+  <si>
+    <t>OSCAR ANTONIO</t>
+  </si>
+  <si>
+    <t>DAVID ABRAHAM</t>
+  </si>
+  <si>
+    <t>SURAJ ALEXANDER</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>LUIS CARLOS</t>
+  </si>
+  <si>
+    <t>JHOSEPT JAHIR</t>
+  </si>
+  <si>
+    <t>YARLI JAEL</t>
+  </si>
+  <si>
+    <t>CESAR ENRIQUE</t>
+  </si>
+  <si>
+    <t>YASSIR JOSUE</t>
+  </si>
+  <si>
+    <t>HILARY LISSETT</t>
+  </si>
+  <si>
+    <t>ANGEL AMETH</t>
+  </si>
+  <si>
+    <t>JOSÉ ANGEL</t>
+  </si>
+  <si>
+    <t>DANNY ESTEBAN</t>
+  </si>
+  <si>
+    <t>MILKA ANABELIS</t>
+  </si>
+  <si>
+    <t>JUAN DIEGO</t>
+  </si>
+  <si>
+    <t>HENRY</t>
+  </si>
+  <si>
+    <t>ORIELIS OSMARI</t>
+  </si>
+  <si>
+    <t>NAYELYS ITZEL</t>
+  </si>
+  <si>
+    <t>AGUSTIN ALBERTO</t>
+  </si>
+  <si>
+    <t>CRISTIAN DAVID</t>
+  </si>
+  <si>
+    <t>ALBA ZUÑIGA</t>
+  </si>
+  <si>
+    <t>ARBOLEDA MORENO</t>
+  </si>
+  <si>
+    <t>CORDOBA GUERRERO</t>
+  </si>
+  <si>
+    <t>COUSIN BRUCE</t>
+  </si>
+  <si>
+    <t>DE BOUTAUD DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>DE LEON CAMPUZANO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ PINO</t>
+  </si>
+  <si>
+    <t>ESPINOSA MACHADO</t>
+  </si>
+  <si>
+    <t>GONZALEZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>HARDING CAPARROSA</t>
+  </si>
+  <si>
+    <t>MARSHALL BERGUIDO</t>
+  </si>
+  <si>
+    <t>MENA GUDIÑO</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>MENDEZ VILLAMIL</t>
+  </si>
+  <si>
+    <t>MENDOZA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>NUÑEZ VALENCIA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ CUMBRERA</t>
+  </si>
+  <si>
+    <t>VERGARA CASIS</t>
+  </si>
+  <si>
+    <t>VILLALBA SANTOS</t>
+  </si>
+  <si>
+    <t>ARCIA MUÑOZ</t>
+  </si>
+  <si>
+    <t>ARIAS MONTENEGRO</t>
+  </si>
+  <si>
+    <t>BONILLA PIMENTEL</t>
+  </si>
+  <si>
+    <t>CABALLOS MAURE</t>
+  </si>
+  <si>
+    <t>COLORADO ROBLES</t>
+  </si>
+  <si>
+    <t>DE CASTA RIVERA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ MUNOZ</t>
+  </si>
+  <si>
+    <t>DE LOS RIOS</t>
+  </si>
+  <si>
+    <t>GONZALEZ VALDERRAMA</t>
+  </si>
+  <si>
+    <t>GUARDIA ORTEGA</t>
+  </si>
+  <si>
+    <t>GUERRERO VIGIL</t>
+  </si>
+  <si>
+    <t>HIDALGO ARROYO</t>
+  </si>
+  <si>
+    <t>MIRANDA ABREGO</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>OSORIO GONZALEZ</t>
+  </si>
+  <si>
+    <t>PITTI CARVAJAL</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>8-1093-2307</t>
+  </si>
+  <si>
+    <t>8-1085-501</t>
+  </si>
+  <si>
+    <t>8-1090-1692</t>
+  </si>
+  <si>
+    <t>8-1097-724</t>
+  </si>
+  <si>
+    <t>8-1082-1812</t>
+  </si>
+  <si>
+    <t>8-1080-2262</t>
+  </si>
+  <si>
+    <t>8-1088-1313</t>
+  </si>
+  <si>
+    <t>3-765-1084</t>
+  </si>
+  <si>
+    <t>8-1071-1697</t>
+  </si>
+  <si>
+    <t>8-1068-1819</t>
+  </si>
+  <si>
+    <t>8-1080-2423</t>
+  </si>
+  <si>
+    <t>8-1093-481</t>
+  </si>
+  <si>
+    <t>8-1090-1411</t>
+  </si>
+  <si>
+    <t>8-1080-977</t>
+  </si>
+  <si>
+    <t>8-1084-1604</t>
+  </si>
+  <si>
+    <t>8-1082-318</t>
+  </si>
+  <si>
+    <t>8-1083-1994</t>
+  </si>
+  <si>
+    <t>8-1084-1037</t>
+  </si>
+  <si>
+    <t>8-1087-2087</t>
+  </si>
+  <si>
+    <t>8-1077-928</t>
+  </si>
+  <si>
+    <t>8-1070-394</t>
+  </si>
+  <si>
+    <t>8-1071-1423</t>
+  </si>
+  <si>
+    <t>8-1063-369</t>
+  </si>
+  <si>
+    <t>8-1077-2398</t>
+  </si>
+  <si>
+    <t>8-1078-2037</t>
+  </si>
+  <si>
+    <t>8-1073-2393</t>
+  </si>
+  <si>
+    <t>8-1075-896</t>
+  </si>
+  <si>
+    <t>8-1073-950</t>
+  </si>
+  <si>
+    <t>8-1078-566</t>
+  </si>
+  <si>
+    <t>8-1081-578</t>
+  </si>
+  <si>
+    <t>8-1070-2133</t>
+  </si>
+  <si>
+    <t>8-1071-52</t>
+  </si>
+  <si>
+    <t>8-1061-1979</t>
+  </si>
+  <si>
+    <t>8-1056-933</t>
+  </si>
+  <si>
+    <t>8-1074-2462</t>
+  </si>
+  <si>
+    <t>8-1065-821</t>
+  </si>
+  <si>
+    <t>8-1072-2244</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Estudiante (Email)</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Documento ID</t>
-  </si>
-  <si>
-    <t>Fecha Nacimiento</t>
-  </si>
-  <si>
-    <t>Grado</t>
-  </si>
-  <si>
-    <t>Grupo</t>
-  </si>
-  <si>
-    <t>juan.perez@estudiante.com</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>15/03/2008</t>
-  </si>
-  <si>
-    <t>maria.garcia@estudiante.com</t>
-  </si>
-  <si>
-    <t>María</t>
-  </si>
-  <si>
-    <t>García</t>
-  </si>
-  <si>
-    <t>22/07/2007</t>
-  </si>
-  <si>
-    <t>carlos.rodriguez@estudiante.com</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Rodríguez</t>
-  </si>
-  <si>
-    <t>ana.martinez@estudiante.com</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>Martínez</t>
-  </si>
-  <si>
-    <t>luis.hernandez@estudiante.com</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Hernández</t>
-  </si>
-  <si>
-    <t>18/09/2008</t>
-  </si>
-  <si>
-    <t>sofia.lopez@estudiante.com</t>
-  </si>
-  <si>
-    <t>Sofía</t>
-  </si>
-  <si>
-    <t>López</t>
-  </si>
-  <si>
-    <t>30/04/2007</t>
-  </si>
-  <si>
-    <t>diego.gonzalez@estudiante.com</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>González</t>
-  </si>
-  <si>
-    <t>valentina.morales@estudiante.com</t>
-  </si>
-  <si>
-    <t>Valentina</t>
-  </si>
-  <si>
-    <t>Morales</t>
-  </si>
-  <si>
-    <t>25/06/2007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,33 +510,22 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color rgb="FFF3F3F3"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFF3F3F3"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF141414"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -187,20 +533,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,227 +861,896 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.200000000000003" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2">
-        <v>87654321</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2">
-        <v>11223344</v>
-      </c>
-      <c r="E4" s="3">
-        <v>39733</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2">
-        <v>44332211</v>
-      </c>
-      <c r="E5" s="3">
-        <v>39203</v>
-      </c>
-      <c r="F5" s="2">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2">
-        <v>55667788</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2">
-        <v>99887766</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="2">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2">
-        <v>33445566</v>
-      </c>
-      <c r="E8" s="3">
-        <v>39793</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2">
-        <v>77889900</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
